--- a/data/league_data/france/18/france_possession.xlsx
+++ b/data/league_data/france/18/france_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E190628-A545-D441-9037-50FF9EBCF2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F0C377-31EA-D74D-B9E5-89615026623C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,9 +898,6 @@
     <t>ht HAI</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Neymar</t>
   </si>
   <si>
@@ -1871,6 +1868,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4739,7 +4739,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>76</v>
@@ -21769,7 +21769,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>292</v>
+        <v>616</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>76</v>
@@ -21867,7 +21867,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>76</v>
@@ -21965,7 +21965,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>35</v>
@@ -22063,7 +22063,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>230</v>
@@ -22161,7 +22161,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>101</v>
@@ -22259,7 +22259,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>35</v>
@@ -22357,7 +22357,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>35</v>
@@ -22455,7 +22455,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>76</v>
@@ -22553,7 +22553,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>259</v>
@@ -22651,10 +22651,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>47</v>
@@ -22749,7 +22749,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>80</v>
@@ -22847,7 +22847,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>67</v>
@@ -22945,7 +22945,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>217</v>
@@ -23043,10 +23043,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>47</v>
@@ -23139,7 +23139,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>35</v>
@@ -23237,10 +23237,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>74</v>
@@ -23335,7 +23335,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>35</v>
@@ -23433,10 +23433,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>47</v>
@@ -23531,7 +23531,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>35</v>
@@ -23629,7 +23629,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>35</v>
@@ -23727,7 +23727,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>80</v>
@@ -23823,7 +23823,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>97</v>
@@ -23921,7 +23921,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>35</v>
@@ -24019,7 +24019,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>97</v>
@@ -24117,7 +24117,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>35</v>
@@ -24213,7 +24213,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>101</v>
@@ -24311,7 +24311,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>35</v>
@@ -24409,7 +24409,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>169</v>
@@ -24507,7 +24507,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>80</v>
@@ -24605,7 +24605,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>35</v>
@@ -24703,7 +24703,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>35</v>
@@ -24801,7 +24801,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>226</v>
@@ -24899,7 +24899,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>169</v>
@@ -24997,7 +24997,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>217</v>
@@ -25095,7 +25095,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>230</v>
@@ -25193,7 +25193,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>35</v>
@@ -25291,7 +25291,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>80</v>
@@ -25389,7 +25389,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>111</v>
@@ -25487,7 +25487,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>35</v>
@@ -25585,7 +25585,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>247</v>
@@ -25683,7 +25683,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>185</v>
@@ -25781,7 +25781,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>35</v>
@@ -25879,7 +25879,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>113</v>
@@ -25977,7 +25977,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>266</v>
@@ -26075,7 +26075,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>247</v>
@@ -26173,7 +26173,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>35</v>
@@ -26271,7 +26271,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>230</v>
@@ -26369,7 +26369,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>111</v>
@@ -26467,7 +26467,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>35</v>
@@ -26565,7 +26565,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>35</v>
@@ -26661,7 +26661,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>35</v>
@@ -26759,7 +26759,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>97</v>
@@ -26857,7 +26857,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>76</v>
@@ -26955,7 +26955,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>35</v>
@@ -27053,10 +27053,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>47</v>
@@ -27151,7 +27151,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>35</v>
@@ -27249,7 +27249,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>76</v>
@@ -27347,7 +27347,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>35</v>
@@ -27445,7 +27445,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>80</v>
@@ -27543,7 +27543,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>35</v>
@@ -27641,7 +27641,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>207</v>
@@ -27737,10 +27737,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>47</v>
@@ -27835,10 +27835,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>47</v>
@@ -27933,7 +27933,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>35</v>
@@ -28031,7 +28031,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>35</v>
@@ -28129,10 +28129,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>59</v>
@@ -28227,7 +28227,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>35</v>
@@ -28325,7 +28325,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>35</v>
@@ -28423,7 +28423,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>35</v>
@@ -28521,7 +28521,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>67</v>
@@ -28619,7 +28619,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>80</v>
@@ -28717,7 +28717,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>35</v>
@@ -28815,7 +28815,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>35</v>
@@ -28913,7 +28913,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>35</v>
@@ -29011,7 +29011,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>101</v>
@@ -29109,7 +29109,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>80</v>
@@ -29207,7 +29207,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>35</v>
@@ -29305,7 +29305,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>35</v>
@@ -29403,7 +29403,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>35</v>
@@ -29501,10 +29501,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>49</v>
@@ -29599,7 +29599,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>76</v>
@@ -29697,7 +29697,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>185</v>
@@ -29795,10 +29795,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C277" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>64</v>
@@ -29893,7 +29893,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>76</v>
@@ -29991,7 +29991,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>35</v>
@@ -30089,7 +30089,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>111</v>
@@ -30187,7 +30187,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>237</v>
@@ -30285,7 +30285,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>113</v>
@@ -30383,7 +30383,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>35</v>
@@ -30481,7 +30481,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>82</v>
@@ -30579,7 +30579,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>35</v>
@@ -30677,10 +30677,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C286" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>47</v>
@@ -30775,7 +30775,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>35</v>
@@ -30873,7 +30873,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>207</v>
@@ -30971,7 +30971,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>249</v>
@@ -31069,7 +31069,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>97</v>
@@ -31167,7 +31167,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>35</v>
@@ -31265,7 +31265,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>35</v>
@@ -31361,7 +31361,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>35</v>
@@ -31459,10 +31459,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>47</v>
@@ -31557,7 +31557,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>217</v>
@@ -31655,7 +31655,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>185</v>
@@ -31753,7 +31753,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>35</v>
@@ -31851,7 +31851,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>35</v>
@@ -31949,7 +31949,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>247</v>
@@ -32047,10 +32047,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>47</v>
@@ -32145,7 +32145,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>101</v>
@@ -32243,7 +32243,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>97</v>
@@ -32341,10 +32341,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>49</v>
@@ -32439,10 +32439,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>47</v>
@@ -32537,10 +32537,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>62</v>
@@ -32635,7 +32635,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>89</v>
@@ -32733,7 +32733,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>35</v>
@@ -32831,7 +32831,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>239</v>
@@ -32929,7 +32929,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>249</v>
@@ -33027,7 +33027,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>35</v>
@@ -33125,7 +33125,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>31</v>
@@ -33223,7 +33223,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>80</v>
@@ -33321,7 +33321,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>35</v>
@@ -33419,7 +33419,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>35</v>
@@ -33517,7 +33517,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>207</v>
@@ -33615,7 +33615,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>207</v>
@@ -33713,7 +33713,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>124</v>
@@ -33811,7 +33811,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>230</v>
@@ -33909,7 +33909,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>97</v>
@@ -34007,7 +34007,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>35</v>
@@ -34105,7 +34105,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>80</v>
@@ -34203,7 +34203,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>35</v>
@@ -34301,7 +34301,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>35</v>
@@ -34399,7 +34399,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>111</v>
@@ -34497,7 +34497,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>80</v>
@@ -34595,7 +34595,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>35</v>
@@ -34693,7 +34693,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>207</v>
@@ -34791,7 +34791,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>35</v>
@@ -34889,7 +34889,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>52</v>
@@ -34987,10 +34987,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C330" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>47</v>
@@ -35085,7 +35085,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>117</v>
@@ -35183,7 +35183,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>35</v>
@@ -35279,10 +35279,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>74</v>
@@ -35377,7 +35377,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>291</v>
@@ -35475,7 +35475,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>249</v>
@@ -35573,10 +35573,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>62</v>
@@ -35671,7 +35671,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>35</v>
@@ -35769,7 +35769,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>97</v>
@@ -35867,7 +35867,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>93</v>
@@ -35965,7 +35965,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>35</v>
@@ -36063,7 +36063,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>101</v>
@@ -36161,7 +36161,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>35</v>
@@ -36259,7 +36259,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>226</v>
@@ -36357,7 +36357,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>111</v>
@@ -36455,7 +36455,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>80</v>
@@ -36553,10 +36553,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>108</v>
@@ -36651,7 +36651,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>113</v>
@@ -36749,7 +36749,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>35</v>
@@ -36845,7 +36845,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>35</v>
@@ -36943,7 +36943,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>35</v>
@@ -37041,7 +37041,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>163</v>
@@ -37139,10 +37139,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C352" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>64</v>
@@ -37237,7 +37237,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>31</v>
@@ -37335,7 +37335,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>80</v>
@@ -37433,7 +37433,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>111</v>
@@ -37531,10 +37531,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>47</v>
@@ -37629,10 +37629,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C357" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>62</v>
@@ -37727,7 +37727,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>35</v>
@@ -37825,7 +37825,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>35</v>
@@ -37923,7 +37923,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>35</v>
@@ -38021,7 +38021,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>226</v>
@@ -38119,7 +38119,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>35</v>
@@ -38217,7 +38217,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>35</v>
@@ -38315,7 +38315,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>35</v>
@@ -38413,10 +38413,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>47</v>
@@ -38509,7 +38509,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>111</v>
@@ -38605,7 +38605,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>111</v>
@@ -38703,7 +38703,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>266</v>
@@ -38801,7 +38801,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>35</v>
@@ -38899,7 +38899,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>35</v>
@@ -38997,7 +38997,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>67</v>
@@ -39095,7 +39095,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>177</v>
@@ -39193,10 +39193,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>108</v>
@@ -39291,7 +39291,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>247</v>
@@ -39389,7 +39389,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>35</v>
@@ -39487,7 +39487,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>76</v>
@@ -39585,7 +39585,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>35</v>
@@ -39683,7 +39683,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>80</v>
@@ -39781,7 +39781,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>35</v>
@@ -39879,10 +39879,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C380" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>59</v>
@@ -39977,7 +39977,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>35</v>
@@ -40073,7 +40073,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>97</v>
@@ -40171,7 +40171,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>35</v>
@@ -40269,7 +40269,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>35</v>
@@ -40365,7 +40365,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>35</v>
@@ -40463,7 +40463,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>35</v>
@@ -40561,7 +40561,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>82</v>
@@ -40659,7 +40659,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>35</v>
@@ -40757,7 +40757,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>76</v>
@@ -40855,7 +40855,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>35</v>
@@ -40953,7 +40953,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>35</v>
@@ -41051,7 +41051,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>97</v>
@@ -41149,7 +41149,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>35</v>
@@ -41247,7 +41247,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>93</v>
@@ -41345,7 +41345,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>35</v>
@@ -41443,7 +41443,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>80</v>
@@ -41539,7 +41539,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>80</v>
@@ -41637,10 +41637,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C398" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>47</v>
@@ -41735,7 +41735,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>247</v>
@@ -41833,7 +41833,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>35</v>
@@ -41931,7 +41931,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>35</v>
@@ -42029,7 +42029,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>35</v>
@@ -42127,7 +42127,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>56</v>
@@ -42223,7 +42223,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>35</v>
@@ -42321,7 +42321,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>207</v>
@@ -42419,7 +42419,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>82</v>
@@ -42517,7 +42517,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>101</v>
@@ -42615,7 +42615,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>35</v>
@@ -42713,7 +42713,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>82</v>
@@ -42811,10 +42811,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>62</v>
@@ -42909,7 +42909,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>35</v>
@@ -43005,7 +43005,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>169</v>
@@ -43103,7 +43103,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>82</v>
@@ -43201,10 +43201,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>74</v>
@@ -43299,10 +43299,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>47</v>
@@ -43397,7 +43397,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>35</v>
@@ -43493,7 +43493,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>185</v>
@@ -43589,7 +43589,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>255</v>
@@ -43687,10 +43687,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>32</v>
@@ -43783,7 +43783,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>35</v>
@@ -43881,7 +43881,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>35</v>
@@ -43979,7 +43979,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>35</v>
@@ -44077,7 +44077,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>93</v>
@@ -44175,7 +44175,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>113</v>
@@ -44273,10 +44273,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>47</v>
@@ -44371,7 +44371,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>35</v>
@@ -44469,7 +44469,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>230</v>
@@ -44567,7 +44567,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>35</v>
@@ -44665,7 +44665,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>31</v>
@@ -44763,10 +44763,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>32</v>
@@ -44861,7 +44861,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>35</v>
@@ -44959,7 +44959,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>35</v>
@@ -45055,7 +45055,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>35</v>
@@ -45251,7 +45251,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>35</v>
@@ -45349,7 +45349,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>35</v>
@@ -45447,7 +45447,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>35</v>
@@ -45545,7 +45545,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>35</v>
@@ -45641,7 +45641,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>80</v>
@@ -45737,7 +45737,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>35</v>
@@ -45835,7 +45835,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>35</v>
@@ -45933,7 +45933,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>35</v>
@@ -46031,7 +46031,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>169</v>
@@ -46129,7 +46129,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>80</v>
@@ -46225,7 +46225,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>80</v>
@@ -46321,7 +46321,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>35</v>
@@ -46419,10 +46419,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C447" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="C447" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>47</v>
@@ -46613,10 +46613,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>32</v>
@@ -46709,7 +46709,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>35</v>
@@ -46807,7 +46807,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>67</v>
@@ -46905,10 +46905,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C452" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>64</v>
@@ -47003,7 +47003,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>35</v>
@@ -47099,10 +47099,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>49</v>
@@ -47197,7 +47197,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>226</v>
@@ -47295,7 +47295,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>113</v>
@@ -47393,7 +47393,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>97</v>
@@ -47491,7 +47491,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>35</v>
@@ -47589,10 +47589,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>49</v>
@@ -47687,7 +47687,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>113</v>
@@ -47785,7 +47785,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>35</v>
@@ -47883,7 +47883,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>207</v>
@@ -47981,7 +47981,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>35</v>
@@ -48079,7 +48079,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>35</v>
@@ -48175,7 +48175,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>35</v>
@@ -48273,10 +48273,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>49</v>
@@ -48371,7 +48371,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>35</v>
@@ -48469,7 +48469,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>226</v>
@@ -48567,7 +48567,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>35</v>
@@ -48665,7 +48665,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>259</v>
@@ -48763,7 +48763,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>80</v>
@@ -48861,7 +48861,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>35</v>
@@ -48959,7 +48959,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>35</v>
@@ -49057,7 +49057,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>35</v>
@@ -49155,7 +49155,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>101</v>
@@ -49253,10 +49253,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>589</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>74</v>
@@ -49351,7 +49351,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>111</v>
@@ -49449,10 +49449,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C478" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>62</v>
@@ -49547,7 +49547,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>35</v>
@@ -49643,13 +49643,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>75</v>
@@ -49741,7 +49741,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>35</v>
@@ -49839,10 +49839,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>153</v>
@@ -49937,7 +49937,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>259</v>
@@ -50035,7 +50035,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>35</v>
@@ -50133,7 +50133,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>35</v>
@@ -50231,7 +50231,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>35</v>
@@ -50329,7 +50329,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>35</v>
@@ -50425,7 +50425,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>35</v>
@@ -50523,7 +50523,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>35</v>
@@ -50619,7 +50619,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>35</v>
@@ -50717,7 +50717,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>230</v>
@@ -50813,10 +50813,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C492" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="D492" s="4" t="s">
         <v>47</v>
@@ -50911,7 +50911,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>247</v>
@@ -51009,7 +51009,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>35</v>
@@ -51105,7 +51105,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>207</v>
@@ -51201,7 +51201,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>35</v>
@@ -51297,7 +51297,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>82</v>
@@ -51393,7 +51393,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>76</v>
@@ -51491,7 +51491,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>76</v>
@@ -51587,7 +51587,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>76</v>
